--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>No</t>
   </si>
@@ -38,22 +38,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>MD Rashedur Rahman</t>
+    <t>name</t>
   </si>
   <si>
-    <t>Saad Ahmed Pathan</t>
-  </si>
-  <si>
-    <t>Jubaer</t>
-  </si>
-  <si>
-    <t>Abdullah Al Erab</t>
-  </si>
-  <si>
-    <t>+880 1963-608354</t>
-  </si>
-  <si>
-    <t>Rahatun</t>
+    <t>..............</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1007,7 @@
   <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -1047,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>601139625269</v>
+        <v>1527347627</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1055,10 +1043,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>601167910331</v>
+        <v>38742648268</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>8801935046751</v>
+        <v>728347923492</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1077,10 +1065,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>83247127457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1088,10 +1076,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8801747998926</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:3">
